--- a/medicine/Mort/Le_Baiser_de_la_Mort_(sculpture)/Le_Baiser_de_la_Mort_(sculpture).xlsx
+++ b/medicine/Mort/Le_Baiser_de_la_Mort_(sculpture)/Le_Baiser_de_la_Mort_(sculpture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Baiser de la Mort (En catalan : El petó de la mort ; en espagnol : El beso de la muerte ; en anglais : The Kiss of Death) est la statue la plus célèbre du cimetière du Poblenou, à Barcelone. 
@@ -514,11 +526,13 @@
           <t>La sculpture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 1930 par le sculpteur catalan Jaume Barba à l'âge de soixante-dix ans, la sculpture est très réaliste. Elle montre un jeune homme, les yeux fermés et la bouche légèrement ouverte, aux mains touchant le sol dans une posture d'abandon[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1930 par le sculpteur catalan Jaume Barba à l'âge de soixante-dix ans, la sculpture est très réaliste. Elle montre un jeune homme, les yeux fermés et la bouche légèrement ouverte, aux mains touchant le sol dans une posture d'abandon.  
 Du côté gauche, la mort s'incline sur lui, personnalisée comme l'Ange de la Mort. Le squelette la représentant porte des ailes et tient le jeune homme par les aisselles. La mort porte un drap qui la couvre partiellement tout en exposant - mais dissimulant aussi - les os au regard.
-La mort ne porte pas de faux comme dans les représentations traditionnelles, mais prend la vie du jeune homme par un baiser[2]. De ce geste se dégage de l'oeuvre une force sensuelle, « à la fois romantique et terrible»[3].
+La mort ne porte pas de faux comme dans les représentations traditionnelles, mais prend la vie du jeune homme par un baiser. De ce geste se dégage de l'oeuvre une force sensuelle, « à la fois romantique et terrible».
 Le piédestal, de forme octogonale, porte la signature de Jaume Barba.
 </t>
         </is>
@@ -548,11 +562,13 @@
           <t>La tombe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sculpture est placée sur la sépulture familiale de la famille d'industriels catalans du textile Llaudet i Soler[4].
-La plaque de la tombe porte la mention "Llaudet Soler" sans autre information[5]. 
-Un vers du poète Jacint Verdaguer (1845-1902)[6] y est apposé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sculpture est placée sur la sépulture familiale de la famille d'industriels catalans du textile Llaudet i Soler.
+La plaque de la tombe porte la mention "Llaudet Soler" sans autre information. 
+Un vers du poète Jacint Verdaguer (1845-1902) y est apposé.
 </t>
         </is>
       </c>
@@ -581,11 +597,13 @@
           <t>Célébrité et postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Poblenou étant situé près du port et du village olympiques, issus des Jeux de 1992, la statue commence à être connue dès 1992, mais c'est l'ouverture de la ville de Barcelone au tourisme international dans les années 2000 qui la fait connaître plus largement[7]. 
-Popularisée par les réseaux sociaux et la presse[8], la sculpture devient rapidement très populaire, jusqu'à faire partie des circuits touristiques traditionnels[9].
-Elle contribue à donner au cimetière du Poblenou, à la manière du Baiser de Brancusi au cimetière du Montparnasse à Paris, auquel Poblenou, d'aménagement plat, est souvent comparé - le cimetière de Montjuïc, plus escarpé, étant davantage rapproché du Père-Lachaise - l'affluence touristique qu'il connaît de nos jours[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Poblenou étant situé près du port et du village olympiques, issus des Jeux de 1992, la statue commence à être connue dès 1992, mais c'est l'ouverture de la ville de Barcelone au tourisme international dans les années 2000 qui la fait connaître plus largement. 
+Popularisée par les réseaux sociaux et la presse, la sculpture devient rapidement très populaire, jusqu'à faire partie des circuits touristiques traditionnels.
+Elle contribue à donner au cimetière du Poblenou, à la manière du Baiser de Brancusi au cimetière du Montparnasse à Paris, auquel Poblenou, d'aménagement plat, est souvent comparé - le cimetière de Montjuïc, plus escarpé, étant davantage rapproché du Père-Lachaise - l'affluence touristique qu'il connaît de nos jours.
 </t>
         </is>
       </c>
